--- a/Hep/data/out/Med_Hep_dci_atc_split.xlsx
+++ b/Hep/data/out/Med_Hep_dci_atc_split.xlsx
@@ -703,7 +703,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -750,7 +750,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil</t>
+          <t>ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil</t>
+          <t>ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE)</t>
+          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE)</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR</t>
+          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR</t>
+          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2614,14 +2614,10 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>J05AP54</t>
-        </is>
-      </c>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
         <v>1</v>
       </c>
@@ -2632,14 +2628,10 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>J05AP54</t>
-        </is>
-      </c>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -3700,7 +3692,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR / VOXILAPRÉVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3718,7 +3710,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR / VOXILAPRÉVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3995,7 +3987,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4058,7 +4050,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
@@ -4397,7 +4389,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil + PEGINTERFÉRON ALFA-2A</t>
+          <t>ADÉFOVIR DIPIVOXIL + PEGINTERFÉRON ALFA-2A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4415,7 +4407,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil</t>
+          <t>ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5117,7 +5109,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5150,7 +5142,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -5176,7 +5168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5194,7 +5186,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5235,12 +5227,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir + Lopinavir / ritonavir + Ribavirine + SOFOSBUVIR</t>
+          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>J05AR08 + nan + J05AR10 + J05AP01 + J05AP08</t>
+          <t>J05AR08 + nan + nan + J05AP01 + J05AP08</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -5253,7 +5245,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE)</t>
+          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE)</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5283,12 +5275,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Lopinavir / ritonavir</t>
+          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>J05AR10</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -5330,7 +5322,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5348,7 +5340,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5637,7 +5629,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE) + Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5655,7 +5647,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL / RILPIVIRINE (CHLORHYDRATE DE)</t>
+          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE)</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5968,7 +5960,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>daclatasvir + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -6016,7 +6008,7 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
@@ -6039,7 +6031,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6087,7 +6079,7 @@
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
@@ -6252,7 +6244,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -6285,7 +6277,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -6311,7 +6303,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR + Ribavirine</t>
+          <t>SOFOSBUVIR; VELPATASVIR + Ribavirine</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6329,7 +6321,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -6618,7 +6610,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Ribavirine + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6651,7 +6643,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6677,7 +6669,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
+          <t>RIBAVIRINE + Sofosbuvir / Ledipasvir</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -6695,7 +6687,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -6795,7 +6787,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + Péginterféron alfa-2b</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6813,7 +6805,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -7090,7 +7082,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil + ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ADÉFOVIR DIPIVOXIL + ENTÉCAVIR MONOHYDRATÉ</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7108,7 +7100,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil</t>
+          <t>ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7149,12 +7141,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Glecaprevir + Lopinavir / ritonavir</t>
+          <t>Glecaprevir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>nan + J05AR10</t>
+          <t>nan + nan</t>
         </is>
       </c>
       <c r="D111" t="n">
@@ -7182,12 +7174,12 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>Lopinavir / ritonavir</t>
+          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>J05AR10</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K111" t="inlineStr"/>
@@ -7717,7 +7709,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil + LAMIVUDINE</t>
+          <t>ADÉFOVIR DIPIVOXIL + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7735,7 +7727,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil</t>
+          <t>ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -8402,7 +8394,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR + Ribavirine + SOFOSBUVIR</t>
+          <t>GLÉCAPRÉVIR; PIBRENTASVIR + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8420,7 +8412,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR</t>
+          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -8615,12 +8607,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR + Elbasvir / Grazoprevir</t>
+          <t>Ribavirine + SOFOSBUVIR + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>J05AP01 + J05AP08 + J05AP54</t>
+          <t>J05AP01 + J05AP08 + nan</t>
         </is>
       </c>
       <c r="D133" t="n">
@@ -8663,12 +8655,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>J05AP54</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N133" t="inlineStr"/>
@@ -8863,7 +8855,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + DOLUTÉGRAVIR SODIQUE</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + DOLUTÉGRAVIR SODIQUE</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8881,7 +8873,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -8993,7 +8985,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Ribavirine + INTROUVABLE (INTERFERON)</t>
+          <t>RIBAVIRINE + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -9011,7 +9003,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -9501,12 +9493,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR + Elbasvir / Grazoprevir</t>
+          <t>SOFOSBUVIR + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>J05AP08 + J05AP54</t>
+          <t>J05AP08 + nan</t>
         </is>
       </c>
       <c r="D147" t="n">
@@ -9534,12 +9526,12 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>J05AP54</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K147" t="inlineStr"/>
@@ -9749,7 +9741,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR + INTROUVABLE (INTERFERON) + Ribavirine</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -9767,7 +9759,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -9820,7 +9812,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -9838,7 +9830,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -9867,7 +9859,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil + Péginterféron alfa-2b + LAMIVUDINE</t>
+          <t>ADÉFOVIR DIPIVOXIL + Péginterféron alfa-2b + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -9885,7 +9877,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil</t>
+          <t>ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -10021,7 +10013,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -10039,7 +10031,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -10092,7 +10084,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Adéfovir dipivoxil</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -10125,7 +10117,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil</t>
+          <t>ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10364,7 +10356,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR / VELPATASVIR / VOXILAPRÉVIR</t>
+          <t>Ribavirine + SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -10397,7 +10389,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR / VOXILAPRÉVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10494,7 +10486,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + GLÉCAPRÉVIR / PIBRENTASVIR</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + GLÉCAPRÉVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -10527,7 +10519,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR</t>
+          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -11274,7 +11266,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2a</t>
+          <t>RIBAVIRINE + Interféron alfa-2a</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -11292,7 +11284,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -11333,7 +11325,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Daclatasvir + Ribavirine + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Daclatasvir + Ribavirine + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -11381,7 +11373,7 @@
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
@@ -11404,7 +11396,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Ribavirine + SOFOSBUVIR</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -11422,7 +11414,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -11735,12 +11727,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ombitasvir + Lopinavir / ritonavir + Ribavirine</t>
+          <t>Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>nan + J05AR10 + J05AP01</t>
+          <t>nan + nan + J05AP01</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -11768,12 +11760,12 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>Lopinavir / ritonavir</t>
+          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>J05AR10</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -11806,7 +11798,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>SOFOSBUVIR; VELPATASVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -11824,7 +11816,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -12078,7 +12070,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
+          <t>PEGINTERFÉRON ALFA-2A + RIBAVIRINE + Bocéprévir</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -12111,7 +12103,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -12350,14 +12342,10 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>J05AP54</t>
-        </is>
-      </c>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
       <c r="D190" t="n">
         <v>1</v>
       </c>
@@ -12368,14 +12356,10 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
-        </is>
-      </c>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>J05AP54</t>
-        </is>
-      </c>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr"/>
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -12870,7 +12854,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -12888,7 +12872,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -13012,7 +12996,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + SOFOSBUVIR / VELPATASVIR</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -13045,7 +13029,7 @@
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -13071,7 +13055,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Daclatasvir + LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>Daclatasvir + LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -13104,7 +13088,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13130,7 +13114,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR + SOFOSBUVIR</t>
+          <t>GLÉCAPRÉVIR; PIBRENTASVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -13148,7 +13132,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR / PIBRENTASVIR</t>
+          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -13189,7 +13173,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR / SOFOSBUVIR + Ribavirine</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -13222,7 +13206,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -13615,7 +13599,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b + Ribavirine</t>
+          <t>RIBAVIRINE + Interféron alfa-2b + Ribavirine</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -13633,7 +13617,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
@@ -13993,7 +13977,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>Télaprévir + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -14041,7 +14025,7 @@
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
@@ -14135,14 +14119,10 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>J05AP54</t>
-        </is>
-      </c>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
         <v>1</v>
       </c>
@@ -14153,14 +14133,10 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr">
-        <is>
-          <t>J05AP54</t>
-        </is>
-      </c>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr"/>
       <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -15154,12 +15130,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>SULFATE D'AMIKACINE + éthambutol + CHLORHYDRATE DE MOXIFLOXACINE + LINÉZOLIDE</t>
+          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + éthambutol + CHLORHYDRATE DE MOXIFLOXACINE + ADRENALINUM POUR PRÉPARATIONS HOMÉOPATHIQUES; ALOE POUR PRÉPARATIONS HOMÉOPATHIQUES; CALCAREA HYPOPHOSPHOROSA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHAMOMILLA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHINA RUBRA POUR PRÉPARATIONS HOMÉOPATHIQUES; CIMICIFUGA POUR PRÉPARATIONS HOMÉOPATHIQUES; CUPRUM SULFURICUM POUR PRÉPARATIONS HOMÉOPATHIQUES; GOSSYPIUM POUR PRÉPARATIONS HOMÉOPATHIQUES; HYDRASTIS CANADENSIS POUR PRÉPARATIONS HOMÉOPATHIQUES; MAGNESIA MURIATICA POUR PRÉPARATIONS HOMÉOPATHIQUES; SECALE CORNUTUM POUR PRÉPARATIONS HOMÉOPATHIQUES; SENECIO AUREUS POUR PRÉPARATIONS HOMÉOPATHIQUES; VISCUM ALBUM POUR PRÉPARATIONS HOMÉOPATHIQUES</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>J01GB06 + J04AK02 + J01MA14 + J01XX08</t>
+          <t>nan + J04AK02 + J01MA14 + nan</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -15172,12 +15148,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>SULFATE D'AMIKACINE</t>
+          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>J01GB06</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -15217,12 +15193,12 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>LINÉZOLIDE</t>
+          <t>ADRENALINUM POUR PRÉPARATIONS HOMÉOPATHIQUES; ALOE POUR PRÉPARATIONS HOMÉOPATHIQUES; CALCAREA HYPOPHOSPHOROSA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHAMOMILLA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHINA RUBRA POUR PRÉPARATIONS HOMÉOPATHIQUES; CIMICIFUGA POUR PRÉPARATIONS HOMÉOPATHIQUES; CUPRUM SULFURICUM POUR PRÉPARATIONS HOMÉOPATHIQUES; GOSSYPIUM POUR PRÉPARATIONS HOMÉOPATHIQUES; HYDRASTIS CANADENSIS POUR PRÉPARATIONS HOMÉOPATHIQUES; MAGNESIA MURIATICA POUR PRÉPARATIONS HOMÉOPATHIQUES; SECALE CORNUTUM POUR PRÉPARATIONS HOMÉOPATHIQUES; SENECIO AUREUS POUR PRÉPARATIONS HOMÉOPATHIQUES; VISCUM ALBUM POUR PRÉPARATIONS HOMÉOPATHIQUES</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>J01XX08</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr"/>
@@ -15651,7 +15627,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -15699,7 +15675,7 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M241" t="inlineStr">
@@ -16101,7 +16077,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR + SOFOSBUVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -16119,7 +16095,7 @@
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -16231,7 +16207,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -16264,7 +16240,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR / SOFOSBUVIR</t>
+          <t>LÉDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16290,7 +16266,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>COBICISTAT / ELVITÉGRAVIR / EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>COBICISTAT; ELVITÉGRAVIR; EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -16308,7 +16284,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>COBICISTAT / ELVITÉGRAVIR / EMTRICITABINE / FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>COBICISTAT; ELVITÉGRAVIR; EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -16396,12 +16372,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Elbasvir / Grazoprevir</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>J05AR03 + J05AP54</t>
+          <t>J05AR03 + nan</t>
         </is>
       </c>
       <c r="D252" t="n">
@@ -16414,7 +16390,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -16429,12 +16405,12 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>Elbasvir / Grazoprevir</t>
+          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>J05AP54</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K252" t="inlineStr"/>
@@ -16751,7 +16727,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -16769,7 +16745,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -16798,7 +16774,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -16816,7 +16792,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>EMTRICITABINE / TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -16916,7 +16892,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + Interféron alfa-2b</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -16934,7 +16910,7 @@
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -17259,12 +17235,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>dasabuvir + Ombitasvir + Lopinavir / ritonavir + Ribavirine + SOFOSBUVIR</t>
+          <t>dasabuvir + Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>J05AP09 + nan + J05AR10 + J05AP01 + J05AP08</t>
+          <t>J05AP09 + nan + nan + J05AP01 + J05AP08</t>
         </is>
       </c>
       <c r="D265" t="n">
@@ -17307,12 +17283,12 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>Lopinavir / ritonavir</t>
+          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
         <is>
-          <t>J05AR10</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N265" t="inlineStr">
@@ -18194,7 +18170,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil + INTROUVABLE (INTERFERON)</t>
+          <t>ADÉFOVIR DIPIVOXIL + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -18212,7 +18188,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil</t>
+          <t>ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -18371,7 +18347,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Daclatasvir + SOFOSBUVIR / VELPATASVIR</t>
+          <t>Daclatasvir + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -18404,7 +18380,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR / VELPATASVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -18678,7 +18654,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>EMTRICITABINE + Adéfovir dipivoxil</t>
+          <t>EMTRICITABINE + ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -18711,7 +18687,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>Adéfovir dipivoxil</t>
+          <t>ADÉFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">

--- a/Hep/data/out/Med_Hep_dci_atc_split.xlsx
+++ b/Hep/data/out/Med_Hep_dci_atc_split.xlsx
@@ -538,7 +538,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -556,7 +556,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -571,7 +571,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -630,7 +630,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -674,7 +674,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -950,7 +950,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -968,7 +968,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL</t>
+          <t>ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL</t>
+          <t>ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>EMTRICITABINE;  TENOFOVIR DISOPROXIL; RILPIVIRINE + OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE)</t>
+          <t>EMTRICITABINE;  TENOFOVIR DISOPROXIL; RILPIVIRINE</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1268,7 +1268,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir</t>
+          <t>SOFOSBUVIR ;LEDIPASVIR</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1357,7 +1357,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir</t>
+          <t>SOFOSBUVIR ;LEDIPASVIR</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1404,7 +1404,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1445,7 +1445,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Daclatasvir + SOFOSBUVIR</t>
+          <t>DACLATASVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Péginterféron alfa-2b</t>
+          <t>AMANTADINE + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1575,7 +1575,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1608,7 +1608,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir + Ribavirine</t>
+          <t>SOFOSBUVIR ;LEDIPASVIR + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir</t>
+          <t>SOFOSBUVIR ;LEDIPASVIR</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1693,7 +1693,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Télaprévir + Ribavirine</t>
+          <t>TELAPREVIR + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ribavirine + Télaprévir + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + TELAPREVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1770,7 +1770,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1785,7 +1785,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1823,7 +1823,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1959,7 +1959,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2033,7 +2033,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + SOFOSBUVIR</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2092,7 +2092,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Péginterféron alfa-2b</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
+          <t>GLECAPREVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2207,7 +2207,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
+          <t>GLECAPREVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2236,7 +2236,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + Ribavirine</t>
+          <t>INTERFERON ALFA-2B + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2254,7 +2254,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -2295,7 +2295,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>télaprévir + Ribavirine + Péginterféron alfa-2b</t>
+          <t>TELAPREVIR + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Asunaprévir + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
+          <t>ASUNAPREVIR + RIBAVIRINE + DACLATASVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2399,7 +2399,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2467,7 +2467,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2508,7 +2508,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2526,7 +2526,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2555,7 +2555,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>RIBAVIRINE + OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2614,7 +2614,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2628,7 +2628,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Daclatasvir + Ribavirine + SOFOSBUVIR</t>
+          <t>DACLATASVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2686,7 +2686,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2742,7 +2742,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a</t>
+          <t>INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a</t>
+          <t>INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + télaprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + TELAPREVIR</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2907,7 +2907,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR</t>
+          <t>RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3019,7 +3019,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -3052,7 +3052,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -3096,7 +3096,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3111,7 +3111,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3137,7 +3137,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Simeprevir + SOFOSBUVIR</t>
+          <t>SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -3155,7 +3155,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Simeprevir</t>
+          <t>SIMEPREVIR</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -3214,7 +3214,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3243,7 +3243,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>daclatasvir + SOFOSBUVIR</t>
+          <t>DACLATASVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -3261,7 +3261,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3302,7 +3302,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Boceprevir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Boceprevir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -3373,7 +3373,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Simeprevir + Ribavirine + SOFOSBUVIR</t>
+          <t>SIMEPREVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -3391,7 +3391,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Simeprevir</t>
+          <t>SIMEPREVIR</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -3444,7 +3444,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Simeprevir + SOFOSBUVIR</t>
+          <t>SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -3462,7 +3462,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Simeprevir</t>
+          <t>SIMEPREVIR</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2a</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3536,7 +3536,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a</t>
+          <t>INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ribavirine + télaprévir + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + TELAPREVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -3580,7 +3580,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3595,7 +3595,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3610,7 +3610,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Grazoprevir + Elbasvir</t>
+          <t>GRAZOPREVIR + ELBASVIR</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -3651,7 +3651,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Grazoprevir</t>
+          <t>GRAZOPREVIR</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3666,7 +3666,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Elbasvir</t>
+          <t>ELBASVIR</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPREVIR</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3710,7 +3710,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPREVIR</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3786,12 +3786,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>daclatasvir + Sofosbuvir / Ledipasvir</t>
+          <t>DACLATASVIR + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>J05AX14 + J05AP51</t>
+          <t>J05AX14 + J05AP55</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3819,12 +3819,12 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>J05AP51</t>
+          <t>J05AP55</t>
         </is>
       </c>
       <c r="K58" t="inlineStr"/>
@@ -3845,7 +3845,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + télaprévir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + TELAPREVIR</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3863,7 +3863,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3893,7 +3893,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -3916,7 +3916,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>daclatasvir + Ribavirine + SOFOSBUVIR</t>
+          <t>DACLATASVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3949,7 +3949,7 @@
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -4005,7 +4005,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -4020,7 +4020,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4035,7 +4035,7 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
@@ -4070,7 +4070,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + SOFOSBUVIR</t>
+          <t>ENTECAVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -4088,7 +4088,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -4103,7 +4103,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ribavirine + INTROUVABLE (INTERFERON)</t>
+          <t>RIBAVIRINE + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -4218,7 +4218,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -4259,7 +4259,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>bulévirtide + PEGINTERFÉRON ALFA-2A</t>
+          <t>BULEVIRTIDE + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -4277,7 +4277,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>bulévirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -4318,7 +4318,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ribavirine + Boceprevir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4336,7 +4336,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -4351,7 +4351,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Boceprevir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4366,7 +4366,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL + PEGINTERFÉRON ALFA-2A</t>
+          <t>ADEFOVIR DIPIVOXIL + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL</t>
+          <t>ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -4422,7 +4422,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4466,7 +4466,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -4495,7 +4495,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Ribavirine + Ribavirine</t>
+          <t>RIBAVIRINE + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -4528,7 +4528,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>RIBAVIRINE + OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -4731,12 +4731,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>dasabuvir + Ribavirine + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
+          <t>DASABUVIR + RIBAVIRINE + OMBITASVIR</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>J05AP09 + J05AP01 + J05AX</t>
+          <t>J05AP09 + J05AP01 + nan</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>dasabuvir</t>
+          <t>DASABUVIR</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -4764,7 +4764,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -4779,12 +4779,12 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
+          <t>OMBITASVIR</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>J05AX</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="N73" t="inlineStr"/>
@@ -4802,7 +4802,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4820,7 +4820,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -4850,7 +4850,7 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P74" t="inlineStr">
@@ -4885,7 +4885,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -4903,7 +4903,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -4932,12 +4932,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>J05AP01 + J05AP51</t>
+          <t>J05AP01 + J05AP55</t>
         </is>
       </c>
       <c r="D76" t="n">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -4965,12 +4965,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>J05AP51</t>
+          <t>J05AP55</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -5009,7 +5009,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -5038,7 +5038,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Daclatasvir + Simeprevir + SOFOSBUVIR</t>
+          <t>DACLATASVIR + SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -5056,7 +5056,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Simeprevir</t>
+          <t>SIMEPREVIR</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -5168,7 +5168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
+          <t>LEDIPASVIR; SOFOSBUVIR + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5227,7 +5227,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine + SOFOSBUVIR</t>
+          <t>EMTRICITABINE;  TENOFOVIR DISOPROXIL; RILPIVIRINE + OMBITASVIR + PARITAPREVIR ; RITONAVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -5245,7 +5245,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE)</t>
+          <t>EMTRICITABINE;  TENOFOVIR DISOPROXIL; RILPIVIRINE</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -5260,7 +5260,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Ombitasvir</t>
+          <t>OMBITASVIR</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
+          <t>PARITAPREVIR ; RITONAVIR</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P81" t="inlineStr">
@@ -5322,7 +5322,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -5369,7 +5369,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -5402,7 +5402,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -5428,7 +5428,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ribavirine + CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + AMANTADINE + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -5461,7 +5461,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5476,7 +5476,7 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Dasabuvir + SOFOSBUVIR</t>
+          <t>DASABUVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Dasabuvir</t>
+          <t>DASABUVIR</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + daclatasvir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + DACLATASVIR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -5591,7 +5591,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
@@ -5629,7 +5629,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE) + Ribavirine + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>EMTRICITABINE;  TENOFOVIR DISOPROXIL; RILPIVIRINE + RIBAVIRINE + OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL; RILPIVIRINE (CHLORHYDRATE DE)</t>
+          <t>EMTRICITABINE;  TENOFOVIR DISOPROXIL; RILPIVIRINE</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -5662,7 +5662,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -5677,7 +5677,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -5718,7 +5718,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -5733,7 +5733,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -5759,7 +5759,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Asunaprévir + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
+          <t>ASUNAPREVIR + RIBAVIRINE + DACLATASVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -5777,7 +5777,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -5807,7 +5807,7 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
@@ -5822,7 +5822,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="P89" t="inlineStr">
@@ -5842,12 +5842,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002) + daclatasvir + Ribavirine</t>
+          <t>DACLATASVIR + DACLATASVIR + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>NON_TROUVE + J05AX14 + J05AP01</t>
+          <t>J05AX14 + J05AX14 + J05AP01</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -5860,12 +5860,12 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002)</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AX14</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -5890,7 +5890,7 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -5931,7 +5931,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -5960,7 +5960,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>daclatasvir + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
+          <t>DACLATASVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -5978,7 +5978,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -6049,7 +6049,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -6064,7 +6064,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -6102,7 +6102,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b + Boceprevir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -6120,7 +6120,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -6135,7 +6135,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -6150,7 +6150,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Boceprevir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
@@ -6173,7 +6173,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR; VELPATASVIR + Ribavirine</t>
+          <t>SOFOSBUVIR; VELPATASVIR + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -6336,7 +6336,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + LAMIVUDINE</t>
+          <t>INTERFERON ALFA-2B + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -6380,7 +6380,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -6421,7 +6421,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Dasabuvir + Ombitasvir + Ribavirine</t>
+          <t>DASABUVIR + OMBITASVIR + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -6439,7 +6439,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Dasabuvir</t>
+          <t>DASABUVIR</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -6454,7 +6454,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>Ombitasvir</t>
+          <t>OMBITASVIR</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -6469,7 +6469,7 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Péginterféron alfa-2b</t>
+          <t>ENTECAVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -6510,7 +6510,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + PEGINTERFÉRON ALFA-2A</t>
+          <t>ENTECAVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -6569,7 +6569,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -6584,7 +6584,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR; VELPATASVIR</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -6628,7 +6628,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -6669,12 +6669,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>RIBAVIRINE + Sofosbuvir / Ledipasvir</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>J05AP01 + J05AP51</t>
+          <t>J05AP01 + J05AP55</t>
         </is>
       </c>
       <c r="D103" t="n">
@@ -6702,12 +6702,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>J05AP51</t>
+          <t>J05AP55</t>
         </is>
       </c>
       <c r="K103" t="inlineStr"/>
@@ -6728,12 +6728,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>J05AP01 + J05AP51</t>
+          <t>J05AP01 + J05AP55</t>
         </is>
       </c>
       <c r="D104" t="n">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -6761,12 +6761,12 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>J05AP51</t>
+          <t>J05AP55</t>
         </is>
       </c>
       <c r="K104" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>RIBAVIRINE + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -6846,7 +6846,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -6864,7 +6864,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -6893,7 +6893,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -6911,7 +6911,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -6940,7 +6940,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -6958,7 +6958,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -6973,7 +6973,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -6988,7 +6988,7 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
@@ -7011,7 +7011,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Ribavirine + Télaprévir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + TELAPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -7044,7 +7044,7 @@
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -7059,7 +7059,7 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL + ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ADEFOVIR DIPIVOXIL + ENTECAVIR</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -7100,7 +7100,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL</t>
+          <t>ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -7115,7 +7115,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Glecaprevir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
+          <t>GLECAPREVIR + pibrentasvir</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Glecaprevir</t>
+          <t>GLECAPREVIR</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -7174,7 +7174,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
+          <t>pibrentasvir</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7218,7 +7218,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7248,7 +7248,7 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine + Boceprevir</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7319,7 +7319,7 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>Boceprevir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
@@ -7342,7 +7342,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Ribavirine + télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>RIBAVIRINE + TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -7375,7 +7375,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P114" t="inlineStr">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Ribavirine + Boceprevir + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>Boceprevir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Rilpivirine</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + RILPIVIRINE</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -7529,7 +7529,7 @@
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7544,7 +7544,7 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>Rilpivirine</t>
+          <t>RILPIVIRINE</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
@@ -7567,7 +7567,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -7600,7 +7600,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -7638,7 +7638,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + daclatasvir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + DACLATASVIR</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="I118" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
@@ -7709,7 +7709,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL + LAMIVUDINE</t>
+          <t>ADEFOVIR DIPIVOXIL + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -7727,7 +7727,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL</t>
+          <t>ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -7801,7 +7801,7 @@
       </c>
       <c r="I120" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J120" t="inlineStr">
@@ -7827,7 +7827,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Lopinavir / Ritonavir + bulévirtide</t>
+          <t>LOPINAVIR / RITONAVIR + BULEVIRTIDE</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Lopinavir / Ritonavir</t>
+          <t>LOPINAVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -7860,7 +7860,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>bulévirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -7886,12 +7886,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Ribavirine + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
+          <t>RIBAVIRINE + OMBITASVIR</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>J05AP01 + J05AX</t>
+          <t>J05AP01 + nan</t>
         </is>
       </c>
       <c r="D122" t="n">
@@ -7904,7 +7904,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -7919,12 +7919,12 @@
       </c>
       <c r="I122" t="inlineStr">
         <is>
-          <t>OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
+          <t>OMBITASVIR</t>
         </is>
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>J05AX</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K122" t="inlineStr"/>
@@ -7945,7 +7945,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + PEGINTERFÉRON ALFA-2A</t>
+          <t>ENTECAVIR + RIBAVIRINE + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -7963,7 +7963,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -7978,7 +7978,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
@@ -8016,7 +8016,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Asunaprévir + ENTÉCAVIR MONOHYDRATÉ + Ribavirine + daclatasvir + PEGINTERFÉRON ALFA-2A</t>
+          <t>ASUNAPREVIR + ENTECAVIR + RIBAVIRINE + DACLATASVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8064,7 +8064,7 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
@@ -8079,7 +8079,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="P124" t="inlineStr">
@@ -8094,7 +8094,7 @@
       </c>
       <c r="R124" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="S124" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -8129,7 +8129,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Ribavirine + SIMEPREVIR + SOFOSBUVIR</t>
+          <t>RIBAVIRINE + SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -8176,7 +8176,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -8247,7 +8247,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>bulévirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>bulévirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -8323,7 +8323,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -8341,7 +8341,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -8371,7 +8371,7 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -8394,7 +8394,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR; PIBRENTASVIR + Ribavirine + SOFOSBUVIR</t>
+          <t>GLECAPREVIR; PIBRENTASVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
+          <t>GLECAPREVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -8513,7 +8513,7 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
@@ -8536,7 +8536,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -8569,7 +8569,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8584,7 +8584,7 @@
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
@@ -8602,12 +8602,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ribavirine (Copegus / Rébétol) + Sovaldi + Zepatier</t>
+          <t>Ribavirine (Copegus / Rébétol) + Sovaldi  + Zepatier</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>RIBAVIRINE + SOFOSBUVIR + ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8655,7 +8655,7 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
@@ -8678,7 +8678,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Bocéprévir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -8711,7 +8711,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -8726,7 +8726,7 @@
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
@@ -8749,7 +8749,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -8767,7 +8767,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -8796,12 +8796,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>dasabuvir + OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
+          <t>DASABUVIR + OMBITASVIR</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>J05AP09 + J05AX</t>
+          <t>J05AP09 + nan</t>
         </is>
       </c>
       <c r="D136" t="n">
@@ -8814,7 +8814,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>dasabuvir</t>
+          <t>DASABUVIR</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -8829,12 +8829,12 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
+          <t>OMBITASVIR</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>J05AX</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K136" t="inlineStr"/>
@@ -8855,7 +8855,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + DOLUTÉGRAVIR SODIQUE</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL + DOLUTEGRAVIR</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -8873,7 +8873,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -8888,7 +8888,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>DOLUTÉGRAVIR SODIQUE</t>
+          <t>DOLUTEGRAVIR</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Péginterféron alfa-2b</t>
+          <t>AMANTADINE + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -8947,7 +8947,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -8962,7 +8962,7 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
@@ -9044,12 +9044,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ribavirine + Sofosbuvir / Ledipasvir</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>J05AP01 + J05AP51</t>
+          <t>J05AP01 + J05AP55</t>
         </is>
       </c>
       <c r="D140" t="n">
@@ -9062,7 +9062,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -9077,12 +9077,12 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>J05AP51</t>
+          <t>J05AP55</t>
         </is>
       </c>
       <c r="K140" t="inlineStr"/>
@@ -9103,7 +9103,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + PEGINTERFÉRON ALFA-2A + LAMIVUDINE</t>
+          <t>ENTECAVIR + PEGINTERFERON ALFA-2A + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -9136,7 +9136,7 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9174,7 +9174,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LAMIVUDINE</t>
+          <t>ENTECAVIR + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -9192,7 +9192,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -9233,7 +9233,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -9251,7 +9251,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -9266,7 +9266,7 @@
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
@@ -9304,12 +9304,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Sofosbuvir / Ledipasvir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>L03AB11 + J05AP01 + J05AP51</t>
+          <t>L03AB11 + J05AP01 + J05AP55</t>
         </is>
       </c>
       <c r="D144" t="n">
@@ -9322,7 +9322,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -9337,7 +9337,7 @@
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9352,12 +9352,12 @@
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir</t>
+          <t>SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>J05AP51</t>
+          <t>J05AP55</t>
         </is>
       </c>
       <c r="N144" t="inlineStr"/>
@@ -9375,7 +9375,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -9408,7 +9408,7 @@
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -9467,7 +9467,7 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
@@ -9488,12 +9488,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Sovaldi + Zepatier</t>
+          <t>Sovaldi  + Zepatier</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>SOFOSBUVIR + ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="I147" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="J147" t="inlineStr">
@@ -9552,7 +9552,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2a</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="I148" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a</t>
+          <t>INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
@@ -9611,7 +9611,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine + Bocéprévir</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -9644,7 +9644,7 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
@@ -9682,7 +9682,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>bulévirtide + PEGINTERFÉRON ALFA-2A</t>
+          <t>BULEVIRTIDE + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -9700,7 +9700,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>bulévirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -9715,7 +9715,7 @@
       </c>
       <c r="I150" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>LEDIPASVIR; SOFOSBUVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -9759,7 +9759,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
@@ -9859,7 +9859,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL + Péginterféron alfa-2b + LAMIVUDINE</t>
+          <t>ADEFOVIR DIPIVOXIL + PEGINTERFERON ALFA-2B + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL</t>
+          <t>ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -9892,7 +9892,7 @@
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
@@ -9930,12 +9930,12 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Deleobuvir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>DELEOBUVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>nan + NON_TROUVE + L03AB11 + J05AP01</t>
+          <t>nan + J05AX14 + L03AB11 + J05AP01</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Deleobuvir</t>
+          <t>DELEOBUVIR</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -9963,12 +9963,12 @@
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002)</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AX14</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -9978,7 +9978,7 @@
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>LEDIPASVIR; SOFOSBUVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -10031,7 +10031,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J155" t="inlineStr">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
@@ -10084,7 +10084,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + ADÉFOVIR DIPIVOXIL</t>
+          <t>ENTECAVIR + ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -10102,7 +10102,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -10117,7 +10117,7 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL</t>
+          <t>ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
@@ -10143,7 +10143,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine + Bocéprévir</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -10176,7 +10176,7 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10191,7 +10191,7 @@
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
@@ -10214,7 +10214,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Boceprevir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
@@ -10262,7 +10262,7 @@
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>Boceprevir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
@@ -10285,7 +10285,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa-2b + Boceprevir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2B + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -10318,7 +10318,7 @@
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10333,7 +10333,7 @@
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>Boceprevir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
@@ -10356,7 +10356,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
+          <t>RIBAVIRINE + SOFOSBUVIR; VELPATASVIR; VOXILAPREVIR</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -10374,7 +10374,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPRÉVIR</t>
+          <t>SOFOSBUVIR; VELPATASVIR; VOXILAPREVIR</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Deleobuvir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + DELEOBUVIR</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -10448,7 +10448,7 @@
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="L161" t="inlineStr">
         <is>
-          <t>Deleobuvir</t>
+          <t>DELEOBUVIR</t>
         </is>
       </c>
       <c r="M161" t="inlineStr">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + GLÉCAPRÉVIR; PIBRENTASVIR</t>
+          <t>ENTECAVIR + GLECAPREVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -10504,7 +10504,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
+          <t>GLECAPREVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="J162" t="inlineStr">
@@ -10545,7 +10545,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -10578,7 +10578,7 @@
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -10652,7 +10652,7 @@
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
@@ -10670,12 +10670,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Ribavirine (Copegus / Rébétol) + Sovaldi + Viraferon Peg</t>
+          <t>Ribavirine (Copegus / Rébétol) + Sovaldi  + Viraferon Peg</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + SOFOSBUVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
@@ -10746,7 +10746,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Asunaprévir + daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -10779,7 +10779,7 @@
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -10809,7 +10809,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -10862,7 +10862,7 @@
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2a + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2A + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a</t>
+          <t>INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
@@ -10959,7 +10959,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine + SOFOSBUVIR</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
@@ -11030,7 +11030,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -11048,7 +11048,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11089,7 +11089,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + Ribavirine</t>
+          <t>INTERFERON ALFA-2B + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -11122,7 +11122,7 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11148,7 +11148,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -11166,7 +11166,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -11195,7 +11195,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>INTERFERON ALFA-2B + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -11228,7 +11228,7 @@
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J173" t="inlineStr">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
@@ -11266,7 +11266,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>RIBAVIRINE + Interféron alfa-2a</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -11299,7 +11299,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a</t>
+          <t>INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Daclatasvir + Ribavirine + SOFOSBUVIR; VELPATASVIR</t>
+          <t>DACLATASVIR + RIBAVIRINE + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -11343,7 +11343,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -11358,7 +11358,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + Ribavirine + SOFOSBUVIR</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -11414,7 +11414,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -11429,7 +11429,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11467,7 +11467,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Ribavirine + Boceprevir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -11485,7 +11485,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -11500,7 +11500,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>Boceprevir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11515,7 +11515,7 @@
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
@@ -11538,7 +11538,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ZIDOVUDINE + Didanosine</t>
+          <t>ZIDOVUDINE + DIDANOSINE</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -11571,7 +11571,7 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>Didanosine</t>
+          <t>DIDANOSINE</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
@@ -11597,7 +11597,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -11615,7 +11615,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -11630,7 +11630,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -11645,7 +11645,7 @@
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -11686,7 +11686,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -11701,7 +11701,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -11727,7 +11727,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine</t>
+          <t>OMBITASVIR + PARITAPREVIR ; RITONAVIR + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -11745,7 +11745,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>Ombitasvir</t>
+          <t>OMBITASVIR</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -11760,7 +11760,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
+          <t>PARITAPREVIR ; RITONAVIR</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -11775,7 +11775,7 @@
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>SOFOSBUVIR; VELPATASVIR + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>SOFOSBUVIR; VELPATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -11831,7 +11831,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -11846,7 +11846,7 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
@@ -11869,7 +11869,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ribavirine + Péginterféron alfa (non précisé)</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -11887,7 +11887,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -11902,7 +11902,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>Péginterféron alfa (non précisé)</t>
+          <t>PEGINTERFERON ALFA</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -11928,7 +11928,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -11946,7 +11946,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -11999,7 +11999,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -12032,7 +12032,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -12047,7 +12047,7 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
@@ -12070,7 +12070,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + RIBAVIRINE + Bocéprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -12118,7 +12118,7 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Asunaprévir + Daclatasvir</t>
+          <t>ASUNAPREVIR + DACLATASVIR</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -12159,7 +12159,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -12174,7 +12174,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -12200,7 +12200,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Télaprévir + Ribavirine + Péginterféron alfa-2b</t>
+          <t>TELAPREVIR + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="I188" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
@@ -12248,7 +12248,7 @@
       </c>
       <c r="L188" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M188" t="inlineStr">
@@ -12271,7 +12271,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>AMANTADINE + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -12289,7 +12289,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -12304,7 +12304,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12319,7 +12319,7 @@
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
@@ -12356,7 +12356,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="G190" t="inlineStr"/>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>AMANTADINE + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -12399,7 +12399,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -12414,7 +12414,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
@@ -12452,7 +12452,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -12470,7 +12470,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12500,7 +12500,7 @@
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
@@ -12518,12 +12518,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Daklinza + Sovaldi + Viekirax</t>
+          <t>Daklinza + Sovaldi  + Viekirax</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Daclatasvir + SOFOSBUVIR + Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>DACLATASVIR + SOFOSBUVIR + OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -12541,7 +12541,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -12571,7 +12571,7 @@
       </c>
       <c r="L193" t="inlineStr">
         <is>
-          <t>Ombitasvir / Paritaprevir / Ritonavir</t>
+          <t>OMBITASVIR / PARITAPREVIR / RITONAVIR</t>
         </is>
       </c>
       <c r="M193" t="inlineStr">
@@ -12594,12 +12594,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>NON_TROUVE + L03AB11 + J05AP01</t>
+          <t>J05AX14 + L03AB11 + J05AP01</t>
         </is>
       </c>
       <c r="D194" t="n">
@@ -12612,12 +12612,12 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002)</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AX14</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -12627,7 +12627,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12642,7 +12642,7 @@
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Ribavirine + SOFOSBUVIR</t>
+          <t>RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -12724,7 +12724,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -12742,7 +12742,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -12772,7 +12772,7 @@
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
@@ -12795,7 +12795,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Asunaprévir + SOFOSBUVIR</t>
+          <t>ASUNAPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -12813,7 +12813,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -12854,7 +12854,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
+          <t>LEDIPASVIR; SOFOSBUVIR + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -12872,7 +12872,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -12887,7 +12887,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -12913,7 +12913,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -12931,7 +12931,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -12961,7 +12961,7 @@
       </c>
       <c r="L199" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M199" t="inlineStr">
@@ -12976,7 +12976,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P199" t="inlineStr">
@@ -12996,7 +12996,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + SOFOSBUVIR; VELPATASVIR</t>
+          <t>ENTECAVIR + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -13014,7 +13014,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -13055,7 +13055,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Daclatasvir + LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>DACLATASVIR + LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -13073,7 +13073,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -13088,7 +13088,7 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13114,7 +13114,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR; PIBRENTASVIR + SOFOSBUVIR</t>
+          <t>GLECAPREVIR; PIBRENTASVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -13132,7 +13132,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>GLÉCAPRÉVIR; PIBRENTASVIR</t>
+          <t>GLECAPREVIR; PIBRENTASVIR</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR; SOFOSBUVIR + Ribavirine</t>
+          <t>ENTECAVIR + LEDIPASVIR; SOFOSBUVIR + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -13191,7 +13191,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -13206,7 +13206,7 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -13221,7 +13221,7 @@
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
@@ -13244,7 +13244,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Télaprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + TELAPREVIR</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -13262,7 +13262,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -13277,7 +13277,7 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -13292,7 +13292,7 @@
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
@@ -13315,7 +13315,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Grazoprevir + Elbasvir + Ribavirine</t>
+          <t>GRAZOPREVIR + ELBASVIR + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -13333,7 +13333,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Grazoprevir</t>
+          <t>GRAZOPREVIR</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>Elbasvir</t>
+          <t>ELBASVIR</t>
         </is>
       </c>
       <c r="J205" t="inlineStr">
@@ -13363,7 +13363,7 @@
       </c>
       <c r="L205" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M205" t="inlineStr">
@@ -13386,7 +13386,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>télaprévir + Ribavirine + Interféron alfa-2a</t>
+          <t>TELAPREVIR + RIBAVIRINE + INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -13404,7 +13404,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -13419,7 +13419,7 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
@@ -13434,7 +13434,7 @@
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a</t>
+          <t>INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
@@ -13457,7 +13457,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine + Interféron alfa-2b</t>
+          <t>AMANTADINE + RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -13475,7 +13475,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -13490,7 +13490,7 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
@@ -13505,7 +13505,7 @@
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
@@ -13528,7 +13528,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -13561,7 +13561,7 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
@@ -13576,7 +13576,7 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>RIBAVIRINE + Interféron alfa-2b + Ribavirine</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -13632,7 +13632,7 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -13647,7 +13647,7 @@
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
@@ -13670,7 +13670,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Ribavirine + télaprévir</t>
+          <t>RIBAVIRINE + TELAPREVIR</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -13688,7 +13688,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -13703,7 +13703,7 @@
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -13729,7 +13729,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b + LAMIVUDINE</t>
+          <t>PEGINTERFERON ALFA-2B + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -13747,7 +13747,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -13788,7 +13788,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>bulévirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -13806,7 +13806,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>bulévirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -13835,7 +13835,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + Ribavirine</t>
+          <t>INTERFERON ALFA-2B + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -13853,7 +13853,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -13868,7 +13868,7 @@
       </c>
       <c r="I213" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
@@ -13894,7 +13894,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Ribavirine + INTROUVABLE (INTERFERON) + Interféron alfa-2a + Boceprevir</t>
+          <t>RIBAVIRINE + INTROUVABLE (INTERFERON) + INTERFERON ALFA-2A + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -13912,7 +13912,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -13942,7 +13942,7 @@
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a</t>
+          <t>INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
@@ -13957,7 +13957,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>Boceprevir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="P214" t="inlineStr">
@@ -13977,7 +13977,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Télaprévir + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
+          <t>TELAPREVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -13995,7 +13995,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Télaprévir + Ribavirine + Péginterféron alfa-2b</t>
+          <t>TELAPREVIR + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -14066,7 +14066,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -14096,7 +14096,7 @@
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
@@ -14119,7 +14119,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
@@ -14158,7 +14158,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Bulevirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -14176,7 +14176,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>Bulevirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Daclatasvir + Simeprevir + Ribavirine + SOFOSBUVIR</t>
+          <t>DACLATASVIR + SIMEPREVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -14223,7 +14223,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -14238,7 +14238,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>Simeprevir</t>
+          <t>SIMEPREVIR</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
@@ -14288,7 +14288,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine + Péginterféron alfa-2b</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -14321,7 +14321,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -14336,7 +14336,7 @@
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
@@ -14359,7 +14359,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>DACLATASVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -14377,7 +14377,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -14407,7 +14407,7 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
@@ -14430,7 +14430,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + LAMIVUDINE</t>
+          <t>PEGINTERFERON ALFA-2A + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -14448,7 +14448,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -14489,7 +14489,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2a</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -14507,7 +14507,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -14522,7 +14522,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a</t>
+          <t>INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14548,7 +14548,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -14566,7 +14566,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -14581,7 +14581,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -14596,7 +14596,7 @@
       </c>
       <c r="L224" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M224" t="inlineStr">
@@ -14619,7 +14619,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + AMANTADINE + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -14652,7 +14652,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -14667,7 +14667,7 @@
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M225" t="inlineStr">
@@ -14690,7 +14690,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a + Péginterféron alfa-2b</t>
+          <t>INTERFERON ALFA-2A + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -14708,7 +14708,7 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>Interféron alfa-2a</t>
+          <t>INTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -14723,7 +14723,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -14749,7 +14749,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -14782,7 +14782,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14808,7 +14808,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Péginterféron alfa (non précisé) + Ribavirine</t>
+          <t>PEGINTERFERON ALFA + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -14826,7 +14826,7 @@
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Péginterféron alfa (non précisé)</t>
+          <t>PEGINTERFERON ALFA</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -14867,7 +14867,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Grazoprevir</t>
+          <t>GRAZOPREVIR</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -14885,7 +14885,7 @@
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>Grazoprevir</t>
+          <t>GRAZOPREVIR</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -14914,7 +14914,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>bulévirtide + INTROUVABLE (INTERFERON)</t>
+          <t>BULEVIRTIDE + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -14932,7 +14932,7 @@
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>bulévirtide</t>
+          <t>BULEVIRTIDE</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -14991,7 +14991,7 @@
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -15006,7 +15006,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -15032,7 +15032,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Péginterféron alfa (non précisé)</t>
+          <t>PEGINTERFERON ALFA</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -15046,7 +15046,7 @@
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>Péginterféron alfa (non précisé)</t>
+          <t>PEGINTERFERON ALFA</t>
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
@@ -15071,7 +15071,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b + LAMIVUDINE</t>
+          <t>INTERFERON ALFA-2B + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -15089,7 +15089,7 @@
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -15130,12 +15130,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + éthambutol + CHLORHYDRATE DE MOXIFLOXACINE + ADRENALINUM POUR PRÉPARATIONS HOMÉOPATHIQUES; ALOE POUR PRÉPARATIONS HOMÉOPATHIQUES; CALCAREA HYPOPHOSPHOROSA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHAMOMILLA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHINA RUBRA POUR PRÉPARATIONS HOMÉOPATHIQUES; CIMICIFUGA POUR PRÉPARATIONS HOMÉOPATHIQUES; CUPRUM SULFURICUM POUR PRÉPARATIONS HOMÉOPATHIQUES; GOSSYPIUM POUR PRÉPARATIONS HOMÉOPATHIQUES; HYDRASTIS CANADENSIS POUR PRÉPARATIONS HOMÉOPATHIQUES; MAGNESIA MURIATICA POUR PRÉPARATIONS HOMÉOPATHIQUES; SECALE CORNUTUM POUR PRÉPARATIONS HOMÉOPATHIQUES; SENECIO AUREUS POUR PRÉPARATIONS HOMÉOPATHIQUES; VISCUM ALBUM POUR PRÉPARATIONS HOMÉOPATHIQUES</t>
+          <t>linézolide + ETHAMBUTOL + MOXIFLOXACINE + LINEZOLIDE</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>nan + J04AK02 + J01MA14 + nan</t>
+          <t>J01XX08 + J04AK02 + J01MA14 + J01XX08</t>
         </is>
       </c>
       <c r="D234" t="n">
@@ -15148,12 +15148,12 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
+          <t>linézolide</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>J01XX08</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -15163,7 +15163,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>éthambutol</t>
+          <t>ETHAMBUTOL</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15178,7 +15178,7 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE DE MOXIFLOXACINE</t>
+          <t>MOXIFLOXACINE</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
@@ -15193,12 +15193,12 @@
       </c>
       <c r="O234" t="inlineStr">
         <is>
-          <t>ADRENALINUM POUR PRÉPARATIONS HOMÉOPATHIQUES; ALOE POUR PRÉPARATIONS HOMÉOPATHIQUES; CALCAREA HYPOPHOSPHOROSA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHAMOMILLA POUR PRÉPARATIONS HOMÉOPATHIQUES; CHINA RUBRA POUR PRÉPARATIONS HOMÉOPATHIQUES; CIMICIFUGA POUR PRÉPARATIONS HOMÉOPATHIQUES; CUPRUM SULFURICUM POUR PRÉPARATIONS HOMÉOPATHIQUES; GOSSYPIUM POUR PRÉPARATIONS HOMÉOPATHIQUES; HYDRASTIS CANADENSIS POUR PRÉPARATIONS HOMÉOPATHIQUES; MAGNESIA MURIATICA POUR PRÉPARATIONS HOMÉOPATHIQUES; SECALE CORNUTUM POUR PRÉPARATIONS HOMÉOPATHIQUES; SENECIO AUREUS POUR PRÉPARATIONS HOMÉOPATHIQUES; VISCUM ALBUM POUR PRÉPARATIONS HOMÉOPATHIQUES</t>
+          <t>LINEZOLIDE</t>
         </is>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>J01XX08</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr"/>
@@ -15213,7 +15213,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE DE MOXIFLOXACINE + diarylquinolines</t>
+          <t>MOXIFLOXACINE + DIARYLQUINOLINES</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE DE MOXIFLOXACINE</t>
+          <t>MOXIFLOXACINE</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -15246,7 +15246,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>diarylquinolines</t>
+          <t>DIARYLQUINOLINES</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -15272,7 +15272,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Asunaprévir + Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -15290,7 +15290,7 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -15305,7 +15305,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -15320,7 +15320,7 @@
       </c>
       <c r="L236" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M236" t="inlineStr">
@@ -15335,7 +15335,7 @@
       </c>
       <c r="O236" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P236" t="inlineStr">
@@ -15355,7 +15355,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine + Péginterféron alfa-2b</t>
+          <t>ENTECAVIR + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -15373,7 +15373,7 @@
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -15388,7 +15388,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -15403,7 +15403,7 @@
       </c>
       <c r="L237" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M237" t="inlineStr">
@@ -15426,7 +15426,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ribavirine + Bocéprévir</t>
+          <t>RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -15444,7 +15444,7 @@
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -15459,7 +15459,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -15485,7 +15485,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Daclatasvir + Sofosbuvir / Ledipasvir</t>
+          <t>DACLATASVIR + SOFOSBUVIR ;LEDIPASVIR</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -15503,7 +15503,7 @@
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -15518,7 +15518,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>Sofosbuvir / Ledipasvir</t>
+          <t>SOFOSBUVIR ;LEDIPASVIR</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -15544,12 +15544,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Asunaprévir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>nan + NON_TROUVE + L03AB11 + J05AP01</t>
+          <t>nan + J05AX14 + L03AB11 + J05AP01</t>
         </is>
       </c>
       <c r="D240" t="n">
@@ -15562,7 +15562,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -15577,12 +15577,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002)</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AX14</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -15592,7 +15592,7 @@
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M240" t="inlineStr">
@@ -15607,7 +15607,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P240" t="inlineStr">
@@ -15627,7 +15627,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A + RIBAVIRINE</t>
+          <t>INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -15660,7 +15660,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -15698,7 +15698,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -15716,7 +15716,7 @@
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -15731,7 +15731,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -15746,7 +15746,7 @@
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M242" t="inlineStr">
@@ -15769,7 +15769,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ribavirine + télaprévir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + TELAPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -15787,7 +15787,7 @@
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -15802,7 +15802,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -15817,7 +15817,7 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M243" t="inlineStr">
@@ -15840,7 +15840,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Grazoprevir + Elbasvir + Ribavirine + SOFOSBUVIR</t>
+          <t>GRAZOPREVIR + ELBASVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -15858,7 +15858,7 @@
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>Grazoprevir</t>
+          <t>GRAZOPREVIR</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -15873,7 +15873,7 @@
       </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>Elbasvir</t>
+          <t>ELBASVIR</t>
         </is>
       </c>
       <c r="J244" t="inlineStr">
@@ -15888,7 +15888,7 @@
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M244" t="inlineStr">
@@ -15923,7 +15923,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -15941,7 +15941,7 @@
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
@@ -15956,7 +15956,7 @@
       </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="J245" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M245" t="inlineStr">
@@ -15994,7 +15994,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Daclatasvir + Ribavirine + SIMEPREVIR + SOFOSBUVIR</t>
+          <t>DACLATASVIR + RIBAVIRINE + SIMEPREVIR + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -16012,7 +16012,7 @@
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -16027,7 +16027,7 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
@@ -16136,7 +16136,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Daclatasvir + Interféron alfa-2b + SOFOSBUVIR</t>
+          <t>DACLATASVIR + INTERFERON ALFA-2B + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -16154,7 +16154,7 @@
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -16169,7 +16169,7 @@
       </c>
       <c r="I248" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J248" t="inlineStr">
@@ -16207,7 +16207,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>ENTECAVIR + LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -16225,7 +16225,7 @@
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
@@ -16240,7 +16240,7 @@
       </c>
       <c r="I249" t="inlineStr">
         <is>
-          <t>LÉDIPASVIR; SOFOSBUVIR</t>
+          <t>LEDIPASVIR; SOFOSBUVIR</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
@@ -16266,7 +16266,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>COBICISTAT; ELVITÉGRAVIR; EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>COBICISTAT; ELVITEGRAVIR; EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -16284,7 +16284,7 @@
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>COBICISTAT; ELVITÉGRAVIR; EMTRICITABINE; FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>COBICISTAT; ELVITEGRAVIR; EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -16313,7 +16313,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J251" t="inlineStr">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE) + ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL + ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -16390,7 +16390,7 @@
       </c>
       <c r="F252" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
@@ -16405,7 +16405,7 @@
       </c>
       <c r="I252" t="inlineStr">
         <is>
-          <t>ELBASVIR; GRAZOPRÉVIR MONOHYDRATÉ</t>
+          <t>ELBASVIR; GRAZOPREVIR</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
@@ -16431,7 +16431,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Ribavirine + Bocéprévir + Péginterféron alfa-2b</t>
+          <t>RIBAVIRINE + BOCEPREVIR + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -16449,7 +16449,7 @@
       </c>
       <c r="F253" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
@@ -16464,7 +16464,7 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
@@ -16479,7 +16479,7 @@
       </c>
       <c r="L253" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M253" t="inlineStr">
@@ -16502,7 +16502,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="F254" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
@@ -16535,7 +16535,7 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
@@ -16550,7 +16550,7 @@
       </c>
       <c r="L254" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M254" t="inlineStr">
@@ -16573,12 +16573,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + INTROUVABLE (BMS 79 002)</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + DACLATASVIR</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>J05AP01 + L03AB11 + NON_TROUVE</t>
+          <t>J05AP01 + L03AB11 + J05AX14</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -16591,7 +16591,7 @@
       </c>
       <c r="F255" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
@@ -16606,7 +16606,7 @@
       </c>
       <c r="I255" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
@@ -16621,12 +16621,12 @@
       </c>
       <c r="L255" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002)</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="M255" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AX14</t>
         </is>
       </c>
       <c r="N255" t="inlineStr"/>
@@ -16644,7 +16644,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine + SOFOSBUVIR</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -16662,7 +16662,7 @@
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="I256" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J256" t="inlineStr">
@@ -16692,7 +16692,7 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
@@ -16727,7 +16727,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -16745,7 +16745,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -16774,7 +16774,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -16792,7 +16792,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>EMTRICITABINE; TÉNOFOVIR DISOPROXIL (FUMARATE DE)</t>
+          <t>EMTRICITABINE; TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -16821,7 +16821,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Bocéprévir</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -16839,7 +16839,7 @@
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -16854,7 +16854,7 @@
       </c>
       <c r="I259" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
@@ -16869,7 +16869,7 @@
       </c>
       <c r="L259" t="inlineStr">
         <is>
-          <t>Bocéprévir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M259" t="inlineStr">
@@ -16892,7 +16892,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>RIBAVIRINE + Interféron alfa-2b</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -16925,7 +16925,7 @@
       </c>
       <c r="I260" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J260" t="inlineStr">
@@ -16951,7 +16951,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Ribavirine</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -16969,7 +16969,7 @@
       </c>
       <c r="F261" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
@@ -16984,7 +16984,7 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
@@ -16999,7 +16999,7 @@
       </c>
       <c r="L261" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M261" t="inlineStr">
@@ -17022,7 +17022,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>DACLATASVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -17040,7 +17040,7 @@
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -17070,7 +17070,7 @@
       </c>
       <c r="L262" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M262" t="inlineStr">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -17111,7 +17111,7 @@
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -17126,7 +17126,7 @@
       </c>
       <c r="I263" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
@@ -17141,7 +17141,7 @@
       </c>
       <c r="L263" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="M263" t="inlineStr">
@@ -17164,7 +17164,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>INTROUVABLE (INTERFERON) + CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
+          <t>INTROUVABLE (INTERFERON) + AMANTADINE + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -17197,7 +17197,7 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
@@ -17212,7 +17212,7 @@
       </c>
       <c r="L264" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M264" t="inlineStr">
@@ -17235,7 +17235,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>dasabuvir + Ombitasvir + CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE + Ribavirine + SOFOSBUVIR</t>
+          <t>DASABUVIR + OMBITASVIR + PARITAPREVIR ; RITONAVIR + RIBAVIRINE + SOFOSBUVIR</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="F265" t="inlineStr">
         <is>
-          <t>dasabuvir</t>
+          <t>DASABUVIR</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="I265" t="inlineStr">
         <is>
-          <t>Ombitasvir</t>
+          <t>OMBITASVIR</t>
         </is>
       </c>
       <c r="J265" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="L265" t="inlineStr">
         <is>
-          <t>CONCENTRAT DE VITAMINE A SYNTHÉTIQUE, FORME HUILEUSE</t>
+          <t>PARITAPREVIR ; RITONAVIR</t>
         </is>
       </c>
       <c r="M265" t="inlineStr">
@@ -17298,7 +17298,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P265" t="inlineStr">
@@ -17330,7 +17330,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Boceprevir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + BOCEPREVIR</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -17348,7 +17348,7 @@
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -17363,7 +17363,7 @@
       </c>
       <c r="I266" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
@@ -17378,7 +17378,7 @@
       </c>
       <c r="L266" t="inlineStr">
         <is>
-          <t>Boceprevir</t>
+          <t>BOCEPREVIR</t>
         </is>
       </c>
       <c r="M266" t="inlineStr">
@@ -17401,7 +17401,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Asunaprévir + daclatasvir + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -17419,7 +17419,7 @@
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -17434,7 +17434,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -17449,7 +17449,7 @@
       </c>
       <c r="L267" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M267" t="inlineStr">
@@ -17464,7 +17464,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P267" t="inlineStr">
@@ -17484,7 +17484,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2A + PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -17502,7 +17502,7 @@
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -17517,7 +17517,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>Péginterféron alfa-2b</t>
+          <t>PEGINTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -17543,12 +17543,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Asunaprévir + INTROUVABLE (BMS 79 002) + PEGINTERFÉRON ALFA-2A + Ribavirine</t>
+          <t>ASUNAPREVIR + DACLATASVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>nan + NON_TROUVE + L03AB11 + J05AP01</t>
+          <t>nan + J05AX14 + L03AB11 + J05AP01</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -17561,7 +17561,7 @@
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>Asunaprévir</t>
+          <t>ASUNAPREVIR</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -17576,12 +17576,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>INTROUVABLE (BMS 79 002)</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>NON_TROUVE</t>
+          <t>J05AX14</t>
         </is>
       </c>
       <c r="K269" t="inlineStr">
@@ -17591,7 +17591,7 @@
       </c>
       <c r="L269" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M269" t="inlineStr">
@@ -17606,7 +17606,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="P269" t="inlineStr">
@@ -17626,7 +17626,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE + Ribavirine</t>
+          <t>AMANTADINE + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -17644,7 +17644,7 @@
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>CHLORHYDRATE D'AMANTADINE</t>
+          <t>AMANTADINE</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -17659,7 +17659,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + Ribavirine</t>
+          <t>ENTECAVIR + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -17703,7 +17703,7 @@
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -17718,7 +17718,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -17744,14 +17744,10 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>J05AX</t>
-        </is>
-      </c>
+          <t>OMBITASVIR</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr"/>
       <c r="D272" t="n">
         <v>1</v>
       </c>
@@ -17762,14 +17758,10 @@
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>OMBITASVIR/PARITAPREVIR/RITONAVIR</t>
-        </is>
-      </c>
-      <c r="G272" t="inlineStr">
-        <is>
-          <t>J05AX</t>
-        </is>
-      </c>
+          <t>OMBITASVIR</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr"/>
       <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -17791,7 +17783,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ribavirine + PEGINTERFÉRON ALFA-2A + Deleobuvir + daclatasvir</t>
+          <t>RIBAVIRINE + PEGINTERFERON ALFA-2A + DELEOBUVIR + DACLATASVIR</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -17809,7 +17801,7 @@
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -17824,7 +17816,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -17839,7 +17831,7 @@
       </c>
       <c r="L273" t="inlineStr">
         <is>
-          <t>Deleobuvir</t>
+          <t>DELEOBUVIR</t>
         </is>
       </c>
       <c r="M273" t="inlineStr">
@@ -17854,7 +17846,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="P273" t="inlineStr">
@@ -17874,7 +17866,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>daclatasvir + INTROUVABLE (INTERFERON) + Ribavirine</t>
+          <t>DACLATASVIR + INTROUVABLE (INTERFERON) + RIBAVIRINE</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -17892,7 +17884,7 @@
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -17922,7 +17914,7 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
@@ -17945,7 +17937,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -17963,7 +17955,7 @@
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
@@ -17978,7 +17970,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -18016,7 +18008,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
+          <t>PEGINTERFERON ALFA-2A + RIBAVIRINE + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -18034,7 +18026,7 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -18049,7 +18041,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -18087,7 +18079,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Télaprévir + PEGINTERFÉRON ALFA-2A + Ribavirine + LAMIVUDINE</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A + RIBAVIRINE + LAMIVUDINE</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -18105,7 +18097,7 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -18120,7 +18112,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -18135,7 +18127,7 @@
       </c>
       <c r="L277" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="M277" t="inlineStr">
@@ -18170,7 +18162,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL + INTROUVABLE (INTERFERON)</t>
+          <t>ADEFOVIR DIPIVOXIL + INTROUVABLE (INTERFERON)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -18188,7 +18180,7 @@
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL</t>
+          <t>ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -18229,7 +18221,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Daclatasvir + SIMEPREVIR</t>
+          <t>DACLATASVIR + SIMEPREVIR</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -18247,7 +18239,7 @@
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -18288,7 +18280,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Deleobuvir + Deleobuvir</t>
+          <t>DELEOBUVIR + DELEOBUVIR</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -18306,7 +18298,7 @@
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Deleobuvir</t>
+          <t>DELEOBUVIR</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -18321,7 +18313,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Deleobuvir</t>
+          <t>DELEOBUVIR</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -18347,7 +18339,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Daclatasvir + SOFOSBUVIR; VELPATASVIR</t>
+          <t>DACLATASVIR + SOFOSBUVIR; VELPATASVIR</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -18365,7 +18357,7 @@
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Daclatasvir</t>
+          <t>DACLATASVIR</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
@@ -18406,7 +18398,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ribavirine + Interféron alfa-2b + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + INTERFERON ALFA-2B + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -18424,7 +18416,7 @@
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -18439,7 +18431,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>Interféron alfa-2b</t>
+          <t>INTERFERON ALFA-2B</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -18454,7 +18446,7 @@
       </c>
       <c r="L282" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M282" t="inlineStr">
@@ -18477,7 +18469,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Ribavirine + INTROUVABLE (INTERFERON) + PEGINTERFÉRON ALFA-2A</t>
+          <t>RIBAVIRINE + INTROUVABLE (INTERFERON) + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -18495,7 +18487,7 @@
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>Ribavirine</t>
+          <t>RIBAVIRINE</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -18525,7 +18517,7 @@
       </c>
       <c r="L283" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="M283" t="inlineStr">
@@ -18595,7 +18587,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>télaprévir + PEGINTERFÉRON ALFA-2A</t>
+          <t>TELAPREVIR + PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -18613,7 +18605,7 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>télaprévir</t>
+          <t>TELAPREVIR</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -18628,7 +18620,7 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>PEGINTERFÉRON ALFA-2A</t>
+          <t>PEGINTERFERON ALFA-2A</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
@@ -18654,7 +18646,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>EMTRICITABINE + ADÉFOVIR DIPIVOXIL</t>
+          <t>EMTRICITABINE + ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -18687,7 +18679,7 @@
       </c>
       <c r="I286" t="inlineStr">
         <is>
-          <t>ADÉFOVIR DIPIVOXIL</t>
+          <t>ADEFOVIR DIPIVOXIL</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
@@ -18713,7 +18705,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ + EMTRICITABINE + FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>ENTECAVIR + EMTRICITABINE + TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -18731,7 +18723,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>ENTÉCAVIR MONOHYDRATÉ</t>
+          <t>ENTECAVIR</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -18761,7 +18753,7 @@
       </c>
       <c r="L287" t="inlineStr">
         <is>
-          <t>FUMARATE DE TÉNOFOVIR DISOPROXIL</t>
+          <t>TENOFOVIR DISOPROXIL</t>
         </is>
       </c>
       <c r="M287" t="inlineStr">
